--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="OPL" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Appendix" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Questions" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Concepts" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Reviews and Meetings" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t xml:space="preserve">Details</t>
   </si>
@@ -85,184 +87,183 @@
     <t xml:space="preserve">Invernizzi, Leonardo</t>
   </si>
   <si>
+    <t xml:space="preserve">Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.04.2019 -15.05.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 – 29.05.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kick Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Survey And Concept Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Joel’s Thesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bianca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nithya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask for his code (thesis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read Joel‘s master‘s thesis, get an overview on upsampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton for the project report (format)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton for the project report (content list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add references to BibTeX + short summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put this file into github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a github account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all except Fahad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voraussetzungen für </t>
+  </si>
+  <si>
+    <t xml:space="preserve">die Vergabe von Leis-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tungspunkten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die  Leistungspunkte  werden  erworben,  wenn  die  Modulprüfung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestanden ist. Die Modulprüfung besteht aus einer Projektarbeit im </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umfang von 12 Wochen, eines Projektberichts von 80 Stunden und </t>
+  </si>
+  <si>
+    <t xml:space="preserve">einem Kolloquium von 30 Minuten.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistungspunkte und </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch das Modul können 10 Leistungspunkte erworben werden. Die </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulnote  ergibt  sich  aus  dem  ungewichteten  Durchschnitt  der </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noten der Prüfungsleistungen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Häufigkeit des Mod-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Modul wird jedes Sommersemester angeboten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitsaufwand   Der Arbeitsaufwand beträgt insgesamt 300 Stunden.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After implementing the upsampling, what should be the problem that we test it on?</t>
+  </si>
+  <si>
     <t xml:space="preserve">- tensorflow</t>
   </si>
   <si>
     <t xml:space="preserve">- his GitHub</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeline</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Pytorch</t>
   </si>
   <si>
     <t xml:space="preserve">- LibAPR</t>
   </si>
   <si>
-    <t xml:space="preserve">29.04.2019 -15.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.05.2019 – 29.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kick Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature Survey And Concept Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.04.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.05.2019</t>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Meeting</t>
   </si>
   <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concept Review with Mentor</t>
   </si>
   <si>
     <t xml:space="preserve">Review with Mentor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Joel’s Thesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bianca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nithya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask for his code (thesis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read Joel‘s master‘s thesis, get an overview on upsampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeleton for the project report (format)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeleton for the project report (content list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add references to BibTeX + short summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">put this file into github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a github account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all except Fahad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voraussetzungen für </t>
-  </si>
-  <si>
-    <t xml:space="preserve">die Vergabe von Leis-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tungspunkten </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die  Leistungspunkte  werden  erworben,  wenn  die  Modulprüfung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bestanden ist. Die Modulprüfung besteht aus einer Projektarbeit im </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umfang von 12 Wochen, eines Projektberichts von 80 Stunden und </t>
-  </si>
-  <si>
-    <t xml:space="preserve">einem Kolloquium von 30 Minuten.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leistungspunkte und </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noten </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durch das Modul können 10 Leistungspunkte erworben werden. Die </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulnote  ergibt  sich  aus  dem  ungewichteten  Durchschnitt  der </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noten der Prüfungsleistungen.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Häufigkeit des Mod-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uls </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Modul wird jedes Sommersemester angeboten. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitsaufwand   Der Arbeitsaufwand beträgt insgesamt 300 Stunden.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After implementing the upsampling, what should be the problem that we test it on?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -293,14 +294,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,19 +305,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F9D4"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,7 +393,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -412,44 +425,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -457,32 +454,44 @@
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FFCC0000"/>
+        <color rgb="FF006600"/>
+        <sz val="10"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -491,7 +500,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -540,9 +549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -556,7 +565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="230040" y="217080"/>
-          <a:ext cx="7763400" cy="1293120"/>
+          <a:ext cx="7754760" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -578,7 +587,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -679,38 +688,24 @@
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -719,72 +714,24 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="n">
-        <v>43587</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
@@ -808,352 +755,2054 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="55.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>43</v>
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2" s="13" t="n">
         <v>43609</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>43584</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="n">
         <v>43609</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>43584</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="n">
         <v>43609</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>43584</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="n">
         <v>43609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>43584</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="n">
         <v>43584</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="n">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G6" s="13" t="n">
         <v>43584</v>
       </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="14" t="n">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="n">
         <v>43584</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="14" t="n">
-        <v>43587</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="13" t="n">
+        <v>43587</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="14"/>
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13" t="n">
         <v>43584</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="14" t="n">
-        <v>43587</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="13" t="n">
+        <v>43587</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="17" t="n">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>43584</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>43584</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
-      <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
-      <c r="B20" s="17"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
-      <c r="B21" s="17"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
-      <c r="B22" s="17"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
-      <c r="B24" s="17"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="17"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="17"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="17"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="17"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="17"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="17"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F89" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F91" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F92" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F123" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F125" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F126" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F132" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F140" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F145" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F147" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F148" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F153" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F154" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F155" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F156" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F157" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F158" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F159" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F160" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F161" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F162" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F163" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F169" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F172" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F175" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F176" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F177" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F178" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F179" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F180" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F181" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F182" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F183" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F184" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F185" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F186" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F187" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F188" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F189" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F190" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F192" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F193" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F194" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F195" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F196" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F197" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F198" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F199" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F200" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F201" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F202" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F203" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F204" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F206" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F207" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F208" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F209" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F210" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F211" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F212" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F213" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F214" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F215" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F216" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F217" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F218" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F219" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F220" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F221" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F222" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F223" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F224" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F225" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F226" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F227" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F228" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F229" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F230" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F231" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F232" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F233" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F234" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F235" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F236" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F237" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F238" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F239" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F240" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F241" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F242" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F243" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F244" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F245" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F246" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F247" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F248" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F249" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F250" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F251" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F252" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F253" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F254" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F255" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F256" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F257" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F258" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F259" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F260" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F261" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F262" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F263" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F264" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F265" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F266" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F267" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F268" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F269" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F270" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F271" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F272" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F273" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F274" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F275" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F276" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F277" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F278" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F279" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F280" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F281" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F282" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F283" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F284" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F285" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F286" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F287" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F288" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F289" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F290" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F291" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F292" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F293" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F294" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F295" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F296" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F297" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F298" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F299" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F300" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F5">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>IF(OPL!$E$2:$E$5&lt;=TODAY(),TRUE())</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C1:C30" type="none">
       <formula1>0</formula1>
@@ -1164,8 +2813,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1188,82 +2837,82 @@
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1271,8 +2920,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1290,10 +2939,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +2953,159 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="24.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>43584</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>43587</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>43595</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>43600</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>43607</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>43612</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>43614</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>IF('Reviews and Meetings'!$C$2:$C$100 = "Done",TRUE())</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t xml:space="preserve">Details</t>
   </si>
@@ -144,12 +144,12 @@
     <t xml:space="preserve">ask for his code (thesis)</t>
   </si>
   <si>
-    <t xml:space="preserve">read Joel‘s master‘s thesis, get an overview on upsampling</t>
-  </si>
-  <si>
     <t xml:space="preserve">all</t>
   </si>
   <si>
+    <t xml:space="preserve">get an overview on upsampling</t>
+  </si>
+  <si>
     <t xml:space="preserve">skeleton for the project report (format)</t>
   </si>
   <si>
@@ -165,7 +165,25 @@
     <t xml:space="preserve">create a github account</t>
   </si>
   <si>
-    <t xml:space="preserve">all except Fahad</t>
+    <t xml:space="preserve">all except Fahad, Nithya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conventional methods for upsampling, share summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other methods for upsampling, share summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other methods+transposed convolution, share summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transposed convolution, share summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule a meeting with Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload the .bib file on Github</t>
   </si>
   <si>
     <t xml:space="preserve">Voraussetzungen für </t>
@@ -217,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">After implementing the upsampling, what should be the problem that we test it on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the network (APRnet) look like? (pooling, activation, conv layers – how many? Where?)</t>
   </si>
   <si>
     <t xml:space="preserve">- tensorflow</t>
@@ -259,9 +280,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -356,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,6 +422,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,11 +434,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,11 +450,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,9 +578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -565,7 +594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="230040" y="217080"/>
-          <a:ext cx="7754760" cy="1292760"/>
+          <a:ext cx="7754400" cy="1292400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,40 +787,41 @@
   <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="55.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="6" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -799,174 +829,186 @@
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="15" t="n">
         <v>43609</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="16" t="n">
         <v>43584</v>
       </c>
-      <c r="F2" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="F2" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="15" t="n">
         <v>43609</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="16" t="n">
         <v>43584</v>
       </c>
-      <c r="F3" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="F3" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="15" t="n">
         <v>43609</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="16" t="n">
         <v>43584</v>
       </c>
-      <c r="F4" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G4" s="13"/>
+      <c r="F4" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G4" s="16" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="15" t="n">
         <v>43609</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="16" t="n">
         <v>43584</v>
       </c>
-      <c r="F5" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G5" s="16" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="15" t="n">
         <v>43584</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>43584</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
+      <c r="E6" s="16" t="n">
+        <v>43682</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>43584</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="13" t="n">
-        <v>43587</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="E7" s="16" t="n">
+        <v>43587</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="15" t="n">
         <v>43584</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="13" t="n">
-        <v>43587</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="E10" s="16" t="n">
+        <v>43587</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -983,7 +1025,9 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="16" t="n">
+        <v>43586</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -1000,67 +1044,132 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="4"/>
+      <c r="E13" s="11" t="n">
+        <v>43593</v>
+      </c>
       <c r="F13" s="10" t="n">
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="4"/>
+      <c r="E14" s="11" t="n">
+        <v>43593</v>
+      </c>
       <c r="F14" s="10" t="n">
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="4"/>
+      <c r="E15" s="11" t="n">
+        <v>43593</v>
+      </c>
       <c r="F15" s="10" t="n">
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="4"/>
+      <c r="E16" s="11" t="n">
+        <v>43593</v>
+      </c>
       <c r="F16" s="10" t="n">
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="F17" s="10" t="n">
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="16" t="n">
+        <v>43587</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43587</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="4"/>
+      <c r="E18" s="11" t="n">
+        <v>43593</v>
+      </c>
       <c r="F18" s="10" t="n">
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
@@ -1070,7 +1179,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
@@ -1080,7 +1189,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
@@ -1090,7 +1199,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
@@ -1100,7 +1209,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
@@ -1110,7 +1219,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
@@ -1120,7 +1229,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
@@ -1130,7 +1239,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
@@ -1140,7 +1249,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
@@ -1150,7 +1259,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
@@ -1160,7 +1269,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
@@ -1170,7 +1279,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -1180,7 +1289,7 @@
         <f aca="true">TODAY()</f>
         <v>43587</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="10" t="n">
@@ -2837,82 +2946,82 @@
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2932,10 +3041,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2945,7 +3054,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2971,25 +3085,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3128,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3019,17 +3136,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="24.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>70</v>
+      <c r="A1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3155,10 @@
         <v>43584</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,23 +3166,23 @@
         <v>43587</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>43595</v>
+        <v>43593</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>43600</v>
+        <v>43593</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,7 +3190,7 @@
         <v>43607</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,7 +3198,7 @@
         <v>43612</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3206,7 @@
         <v>43614</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t xml:space="preserve">Details</t>
   </si>
@@ -90,10 +90,19 @@
     <t xml:space="preserve">Timeline</t>
   </si>
   <si>
-    <t xml:space="preserve">29.04.2019 -15.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.05.2019 – 29.05.2019</t>
+    <t xml:space="preserve">29.04.2019 -09.06.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.06.2019 – 18.06.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06.2019 – 12.07.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.07.2019 – 01.08.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.08.2019 (Tentative)</t>
   </si>
   <si>
     <t xml:space="preserve">Kick Off</t>
@@ -102,7 +111,16 @@
     <t xml:space="preserve">Literature Survey And Concept Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementation</t>
+    <t xml:space="preserve">Implementation – Upsampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation – Segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Presentation</t>
   </si>
   <si>
     <t xml:space="preserve">Task</t>
@@ -267,22 +285,18 @@
     <t xml:space="preserve">Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Concept Review with Mentor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review with Mentor</t>
+    <t xml:space="preserve">Review with Joel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -377,7 +391,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,11 +417,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -422,10 +440,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -434,23 +448,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,10 +465,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,9 +580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -594,7 +596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="230040" y="217080"/>
-          <a:ext cx="7754400" cy="1292400"/>
+          <a:ext cx="7754040" cy="1292040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,8 +618,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,8 +628,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.54"/>
   </cols>
@@ -726,36 +728,48 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -763,11 +777,9 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -786,2129 +798,2129 @@
   </sheetPr>
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="55.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="55.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="6" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="6" style="11" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14" t="n">
         <v>43609</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="14" t="n">
         <v>43584</v>
       </c>
-      <c r="F2" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G2" s="16" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="J2" s="17"/>
+      <c r="F2" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G2" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B3" s="14" t="n">
         <v>43609</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="14" t="n">
         <v>43584</v>
       </c>
-      <c r="F3" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G3" s="16" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F3" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" s="14" t="n">
         <v>43609</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="14" t="n">
         <v>43584</v>
       </c>
-      <c r="F4" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G4" s="16" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F4" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>43609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="14" t="n">
         <v>43584</v>
       </c>
-      <c r="F5" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G5" s="16" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F5" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="B6" s="14" t="n">
         <v>43584</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="14" t="n">
         <v>43682</v>
       </c>
-      <c r="F6" s="15" t="n">
-        <f aca="true">TODAY()</f>
+      <c r="F6" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>43584</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="14" t="n">
         <v>43587</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>43584</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="16" t="n">
-        <v>43587</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G7" s="16"/>
+      <c r="F7" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="I9" s="19"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="B10" s="14" t="n">
         <v>43584</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="14" t="n">
         <v>43587</v>
       </c>
-      <c r="F10" s="15" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G10" s="16"/>
+      <c r="F10" s="14" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <v>43584</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="F11" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G11" s="16" t="n">
+      <c r="F11" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G11" s="14" t="n">
         <v>43586</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <v>43584</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="F12" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G12" s="16"/>
+      <c r="F12" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11" t="n">
         <v>43593</v>
       </c>
-      <c r="F13" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G13" s="16"/>
+      <c r="F13" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="11" t="n">
         <v>43593</v>
       </c>
-      <c r="F14" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G14" s="16"/>
+      <c r="F14" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="11" t="n">
         <v>43593</v>
       </c>
-      <c r="F15" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G15" s="16"/>
+      <c r="F15" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="11" t="n">
         <v>43593</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G16" s="16"/>
+      <c r="F16" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="F17" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G17" s="16" t="n">
+      <c r="F17" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G17" s="14" t="n">
         <v>43587</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="11" t="n">
         <v>43593</v>
       </c>
-      <c r="F18" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G18" s="16"/>
+      <c r="F18" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="F19" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G19" s="16"/>
+      <c r="F19" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="F20" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G20" s="16"/>
+      <c r="F20" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="F21" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G21" s="16"/>
+      <c r="F21" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="F22" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G22" s="16"/>
+      <c r="F22" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="F23" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G23" s="16"/>
+      <c r="F23" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G24" s="16"/>
+      <c r="F24" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="F25" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G25" s="16"/>
+      <c r="F25" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="F26" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G26" s="16"/>
+      <c r="F26" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="F27" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G27" s="16"/>
+      <c r="F27" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="F28" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="F28" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="F29" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G29" s="16"/>
+      <c r="F29" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="F30" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
-      </c>
-      <c r="G30" s="16"/>
+      <c r="F30" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
+      </c>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F31" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F32" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F33" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F34" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F35" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F36" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F37" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F38" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F39" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F40" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F41" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F42" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F43" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F44" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F45" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F46" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F47" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F48" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F49" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F50" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F51" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F52" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F53" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F54" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F55" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F56" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F57" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F58" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F59" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F60" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F61" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F62" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F63" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F64" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F65" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F66" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F67" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F68" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F69" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F70" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F71" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F72" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F73" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F74" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F75" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F76" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F77" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F78" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F79" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F80" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F81" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F82" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F83" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F84" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F85" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F85" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F86" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F86" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F87" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F88" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F88" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F89" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F90" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F90" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F91" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F92" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F93" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F94" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F95" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F96" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F97" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F98" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F99" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F100" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F101" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F102" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F103" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F104" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F105" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F106" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F107" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F108" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F109" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F110" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F111" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F112" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F113" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F114" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F115" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F116" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F117" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F118" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F119" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F120" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F121" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F122" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F123" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F124" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F125" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F126" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F127" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F128" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F129" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F130" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F131" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F132" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F133" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F134" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F135" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F136" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F137" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F138" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F139" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F140" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F141" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F142" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F143" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F144" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F145" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F146" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F147" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F148" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F149" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F150" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F151" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F152" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F153" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F154" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F155" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F156" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F157" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F158" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F159" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F160" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F161" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F162" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F163" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F164" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F165" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F166" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F167" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F167" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F168" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F169" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F170" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F171" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F172" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F173" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F173" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F174" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F174" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F175" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F176" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F177" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F177" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F178" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F178" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F179" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F179" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F180" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F180" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F181" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F181" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F182" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F182" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F183" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F183" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F184" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F184" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F185" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F185" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F186" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F186" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F187" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F187" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F188" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F188" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F189" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F189" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F190" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F191" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F192" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F192" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F193" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F193" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F194" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F194" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F195" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F195" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F196" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F197" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F198" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F198" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F199" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F200" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F201" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F201" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F202" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F202" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F203" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F203" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F204" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F204" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F205" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F205" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F206" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F206" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F207" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F207" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F208" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F208" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F209" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F209" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F210" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F210" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F211" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F211" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F212" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F212" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F213" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F213" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F214" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F214" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F215" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F215" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F216" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F216" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F217" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F217" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F218" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F218" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F219" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F219" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F220" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F220" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F221" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F221" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F222" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F222" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F223" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F223" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F224" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F224" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F225" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F225" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F226" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F226" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F227" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F227" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F228" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F228" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F229" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F229" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F230" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F230" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F231" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F231" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F232" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F232" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F233" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F233" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F234" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F234" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F235" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F235" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F236" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F236" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F237" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F237" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F238" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F238" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F239" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F239" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F240" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F240" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F241" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F242" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F243" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F244" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F245" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F246" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F247" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F248" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F248" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F249" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F249" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F250" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F250" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F251" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F251" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F252" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F252" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F253" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F254" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F254" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F255" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F255" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F256" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F256" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F257" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F257" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F258" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F258" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F259" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F259" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F260" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F260" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F261" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F261" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F262" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F262" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F263" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F263" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F264" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F264" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F265" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F265" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F266" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F266" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F267" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F267" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F268" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F268" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F269" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F269" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F270" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F270" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F271" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F271" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F272" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F272" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F273" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F273" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F274" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F274" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F275" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F275" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F276" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F276" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F277" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F277" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F278" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F278" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F279" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F279" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F280" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F280" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F281" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F281" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F282" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F282" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F283" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F283" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F284" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F284" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F285" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F285" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F286" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F286" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F287" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F287" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F288" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F288" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F289" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F289" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F290" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F290" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F291" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F291" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F292" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F292" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F293" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F293" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F294" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F294" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F295" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F295" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F296" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F296" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F297" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F297" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F298" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F298" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F299" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F299" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F300" s="10" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43587</v>
+      <c r="F300" s="11" t="n">
+        <f aca="true">TODAY()</f>
+        <v>43619</v>
       </c>
     </row>
   </sheetData>
@@ -2946,82 +2958,82 @@
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3054,12 +3066,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3091,22 +3103,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3125,94 +3137,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="24.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="24.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>77</v>
+      <c r="A1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="11" t="n">
         <v>43584</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>79</v>
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="11" t="n">
         <v>43587</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>78</v>
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>43593</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>78</v>
+      <c r="A4" s="11" t="n">
+        <v>43595</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>43593</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>80</v>
+      <c r="A5" s="11" t="n">
+        <v>43609</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>43607</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>78</v>
+      <c r="A6" s="11" t="n">
+        <v>43619</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>43612</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>78</v>
+      <c r="A7" s="11" t="n">
+        <v>43626</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
-        <v>43614</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
+      <c r="A8" s="11" t="n">
+        <v>43633</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
+        <v>43635</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>43640</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>43654</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <v>43658</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>43668</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>43675</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A1:C1048576">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>IF('Reviews and Meetings'!$C$2:$C$100 = "Done",TRUE())</formula>
+      <formula>IF('Reviews and Meetings'!$C$2:$C$99 = "Done",TRUE())</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t xml:space="preserve">Details</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve">Review with Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review with Joel (Final implementation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Meeting (Finalize project report)</t>
   </si>
 </sst>
 </file>
@@ -580,9 +589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>34200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,7 +605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="230040" y="217080"/>
-          <a:ext cx="7754040" cy="1292040"/>
+          <a:ext cx="7753680" cy="1291680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -618,7 +627,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -853,11 +862,11 @@
       </c>
       <c r="F2" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G2" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="J2" s="15"/>
     </row>
@@ -877,11 +886,11 @@
       </c>
       <c r="F3" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G3" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,11 +909,11 @@
       </c>
       <c r="F4" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G4" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,11 +932,11 @@
       </c>
       <c r="F5" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G5" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,7 +955,7 @@
       </c>
       <c r="F6" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="16"/>
@@ -968,7 +977,7 @@
       </c>
       <c r="F7" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -982,7 +991,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G8" s="14"/>
       <c r="I8" s="17"/>
@@ -997,7 +1006,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="17"/>
@@ -1018,7 +1027,7 @@
       </c>
       <c r="F10" s="14" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -1035,7 +1044,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G11" s="14" t="n">
         <v>43586</v>
@@ -1054,7 +1063,7 @@
       <c r="D12" s="4"/>
       <c r="F12" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -1064,7 +1073,7 @@
       </c>
       <c r="B13" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>41</v>
@@ -1075,7 +1084,7 @@
       </c>
       <c r="F13" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -1085,7 +1094,7 @@
       </c>
       <c r="B14" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>42</v>
@@ -1096,7 +1105,7 @@
       </c>
       <c r="F14" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G14" s="14"/>
     </row>
@@ -1106,7 +1115,7 @@
       </c>
       <c r="B15" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>40</v>
@@ -1117,7 +1126,7 @@
       </c>
       <c r="F15" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -1127,7 +1136,7 @@
       </c>
       <c r="B16" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>43</v>
@@ -1138,7 +1147,7 @@
       </c>
       <c r="F16" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -1148,7 +1157,7 @@
       </c>
       <c r="B17" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>40</v>
@@ -1156,7 +1165,7 @@
       <c r="D17" s="4"/>
       <c r="F17" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G17" s="14" t="n">
         <v>43587</v>
@@ -1168,7 +1177,7 @@
       </c>
       <c r="B18" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>43</v>
@@ -1179,7 +1188,7 @@
       </c>
       <c r="F18" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -1189,7 +1198,7 @@
       <c r="D19" s="4"/>
       <c r="F19" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -1199,7 +1208,7 @@
       <c r="D20" s="4"/>
       <c r="F20" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G20" s="14"/>
     </row>
@@ -1209,7 +1218,7 @@
       <c r="D21" s="4"/>
       <c r="F21" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G21" s="14"/>
     </row>
@@ -1219,7 +1228,7 @@
       <c r="D22" s="4"/>
       <c r="F22" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -1229,7 +1238,7 @@
       <c r="D23" s="4"/>
       <c r="F23" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G23" s="14"/>
     </row>
@@ -1239,7 +1248,7 @@
       <c r="D24" s="4"/>
       <c r="F24" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G24" s="14"/>
     </row>
@@ -1249,7 +1258,7 @@
       <c r="D25" s="4"/>
       <c r="F25" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G25" s="14"/>
     </row>
@@ -1259,7 +1268,7 @@
       <c r="D26" s="4"/>
       <c r="F26" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G26" s="14"/>
     </row>
@@ -1269,7 +1278,7 @@
       <c r="D27" s="4"/>
       <c r="F27" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G27" s="14"/>
     </row>
@@ -1279,7 +1288,7 @@
       <c r="D28" s="4"/>
       <c r="F28" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G28" s="14"/>
     </row>
@@ -1289,7 +1298,7 @@
       <c r="D29" s="4"/>
       <c r="F29" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G29" s="14"/>
     </row>
@@ -1299,1628 +1308,1628 @@
       <c r="D30" s="4"/>
       <c r="F30" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
       <c r="G30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F52" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F53" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F54" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F55" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F94" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F100" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F112" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F116" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F117" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F123" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F128" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F129" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F131" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F132" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F133" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F134" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F135" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F136" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F137" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F138" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F139" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F140" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F141" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F142" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F143" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F144" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F145" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F146" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F147" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F149" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F150" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F151" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F152" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F153" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F154" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F155" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F156" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F157" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F158" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F159" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F160" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F161" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F162" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F163" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F164" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F165" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F166" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F167" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F168" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F169" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F170" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F171" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F172" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F173" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F174" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F175" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F176" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F177" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F178" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F179" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F180" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F181" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F182" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F183" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F184" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F185" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F186" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F187" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F188" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F189" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F190" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F191" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F192" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F193" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F194" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F195" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F196" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F197" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F198" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F199" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F200" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F201" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F202" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F203" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F204" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F205" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F206" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F207" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F208" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F209" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F210" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F211" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F212" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F213" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F214" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F215" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F216" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F217" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F218" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F219" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F220" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F221" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F222" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F223" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F224" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F225" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F226" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F227" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F228" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F229" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F230" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F231" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F232" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F233" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F234" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F235" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F236" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F237" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F238" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F239" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F240" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F241" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F242" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F243" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F244" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F245" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F246" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F247" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F248" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F249" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F250" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F251" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F252" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F253" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F254" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F255" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F256" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F257" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F258" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F259" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F260" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F261" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F262" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F263" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F264" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F265" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F266" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F267" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F268" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F269" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F270" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F271" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F272" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F273" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F274" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F275" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F276" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F277" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F278" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F279" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F280" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F281" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F282" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F283" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F284" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F285" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F286" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F287" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F288" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F289" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F290" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F291" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F292" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F293" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F294" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F295" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F296" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F297" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F298" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F299" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F300" s="11" t="n">
         <f aca="true">TODAY()</f>
-        <v>43619</v>
+        <v>43635</v>
       </c>
     </row>
   </sheetData>
@@ -3139,14 +3148,14 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="24.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="32.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
@@ -3213,18 +3222,24 @@
       <c r="B6" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
-        <v>43633</v>
+        <v>43635</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>84</v>
@@ -3232,7 +3247,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
-        <v>43635</v>
+        <v>43637</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>86</v>
@@ -3240,7 +3255,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
-        <v>43640</v>
+        <v>43642</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>84</v>
@@ -3248,7 +3263,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
-        <v>43647</v>
+        <v>43649</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>84</v>
@@ -3256,34 +3271,25 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
-        <v>43654</v>
+        <v>43656</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
-        <v>43658</v>
-      </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>43668</v>
-      </c>
       <c r="B14" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <v>43675</v>
-      </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
